--- a/Script/cleaned_data.xlsx
+++ b/Script/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1231,44 +1231,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Anakin</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Skywalker</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>8766783469</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>910 Tatooine Road, Tatooine</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
